--- a/BackTest/2020-01-19 BackTest ETH.xlsx
+++ b/BackTest/2020-01-19 BackTest ETH.xlsx
@@ -5830,7 +5830,7 @@
         <v>-900.6664019759453</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-879.6208019759453</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-846.0809019759452</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1028.235713087056</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1030.026313087056</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-943.2237936326042</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-943.2237936326042</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-713.1181936326042</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-818.1141936326042</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-843.1299936326042</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-940.2152936326041</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-914.0689936326041</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-705.7637936326041</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-720.7530936326041</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-732.919493632604</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-700.731093632604</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-691.747493632604</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-721.242993632604</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-2112.850890229341</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-2072.271990229341</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-2072.271990229341</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-2132.342390229341</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-2141.895190229341</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-2135.042190229341</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-2151.348190229341</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-2136.689690229341</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-2147.817790229341</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-2113.211090229341</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-2170.828090229341</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-2198.678090229341</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-2347.585690229341</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-3872.344858127909</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-3981.408186141063</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-3804.808517952249</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-3860.075672493039</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-3860.075672493039</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-3692.871072493039</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-3737.89634128154</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-3744.33634128154</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-3705.37914128154</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-3748.45434128154</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-3647.50964128154</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-3762.05324128154</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-3762.05324128154</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-3787.90874128154</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-3772.80384128154</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-3720.746141281541</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-3639.88954128154</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-3252.62034128154</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-3252.62034128154</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-3459.43134128154</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-3219.42124128154</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-3219.42124128154</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-3271.79954128154</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3297.72944128154</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-3297.72944128154</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-3297.584941281541</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-3326.760341281541</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-3648.808641281541</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-3630.66368821611</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-3630.66368821611</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-3577.651742995144</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-3577.651742995144</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-3705.539842995144</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-3716.636542995144</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-3659.318542995144</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-3872.701142995144</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-3743.540642995144</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-3868.946042995144</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-3721.824574956029</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-3646.701936420231</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-3597.309415556553</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-3613.429315556553</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-3530.219715556553</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-3563.807515556553</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-3533.872615556553</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-3543.803615556553</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-3540.516115556553</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-3540.516115556553</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-3562.765415556553</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-3563.991313755215</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-3563.991313755215</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-3489.686011953877</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-3455.076371624659</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-3455.076371624659</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-3500.712471624659</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-3500.712471624659</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-3510.419771624659</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-3475.304271624659</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-3483.304271624659</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-3483.304271624659</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-3494.522271624659</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-3486.501971624659</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-3492.410171624659</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-3552.914871624659</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-3458.984371624659</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-3504.444171624659</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-3504.444171624659</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24178,17 +24178,11 @@
         <v>-3661.36372597974</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24217,17 +24211,11 @@
         <v>-3717.98282597974</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>191000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24256,17 +24244,11 @@
         <v>-3700.68412597974</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>190800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24295,17 +24277,11 @@
         <v>-3519.29972597974</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>191000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24338,11 +24314,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24375,11 +24347,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24412,11 +24380,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24449,11 +24413,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24486,11 +24446,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24523,11 +24479,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24560,11 +24512,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24597,11 +24545,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24634,11 +24578,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24671,11 +24611,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24708,11 +24644,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24745,11 +24677,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24782,11 +24710,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24819,11 +24743,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24856,11 +24776,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24893,11 +24809,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24930,11 +24842,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24967,11 +24875,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25004,11 +24908,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25041,11 +24941,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25078,11 +24974,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25115,11 +25007,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25152,11 +25040,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25189,11 +25073,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25226,11 +25106,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25263,11 +25139,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25172,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25337,11 +25205,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25374,11 +25238,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25411,11 +25271,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25448,11 +25304,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25485,11 +25337,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25522,11 +25370,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25559,11 +25403,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25596,11 +25436,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25633,11 +25469,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25670,11 +25502,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25707,11 +25535,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25744,11 +25568,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25781,11 +25601,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25818,11 +25634,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25851,17 +25663,11 @@
         <v>-4408.595522865537</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>189400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25890,17 +25696,11 @@
         <v>-4466.441622865536</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>188800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25929,17 +25729,11 @@
         <v>-4279.416722865536</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>188500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25968,17 +25762,11 @@
         <v>-4343.093422865536</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>188900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26007,17 +25795,11 @@
         <v>-4279.544422865536</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>188500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26046,17 +25828,11 @@
         <v>-4186.998322865536</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>188800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26085,17 +25861,11 @@
         <v>-4330.846422865537</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>189100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26124,17 +25894,11 @@
         <v>-4330.846422865537</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>189000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26163,17 +25927,11 @@
         <v>-4165.692922865536</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>189000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26202,17 +25960,11 @@
         <v>-4137.511822865536</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>189200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26241,17 +25993,11 @@
         <v>-4137.511822865536</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>189500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26280,17 +26026,11 @@
         <v>-4188.171593314085</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>189500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26319,17 +26059,11 @@
         <v>-4148.372979329916</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>189100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26358,17 +26092,11 @@
         <v>-4148.372979329916</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>189300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26397,17 +26125,11 @@
         <v>-4136.152779329916</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>189300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26436,17 +26158,11 @@
         <v>-4090.838111679759</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>189500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26475,17 +26191,11 @@
         <v>-4191.943711679759</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>189800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26514,17 +26224,11 @@
         <v>-4185.165611679759</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>189600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26553,17 +26257,11 @@
         <v>-4183.547711679758</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>189700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26592,17 +26290,11 @@
         <v>-4058.371111679759</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>189900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26635,11 +26327,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26672,11 +26360,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26709,11 +26393,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26746,11 +26426,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26783,11 +26459,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26820,11 +26492,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26857,11 +26525,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26894,11 +26558,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26927,17 +26587,11 @@
         <v>-3818.471003096293</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>189400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26970,11 +26624,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27007,11 +26657,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27044,11 +26690,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27081,11 +26723,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27118,11 +26756,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27155,11 +26789,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27188,17 +26818,11 @@
         <v>-4105.040603096294</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>189000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27227,17 +26851,11 @@
         <v>-4105.040603096294</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>188900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27266,17 +26884,11 @@
         <v>-4130.492207853165</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>188900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27305,17 +26917,11 @@
         <v>-4224.789107853166</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>188800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27352,7 +26958,7 @@
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L805" t="n">
@@ -27968,9 +27574,11 @@
         <v>-4080.724055863774</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>189300</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28005,9 +27613,11 @@
         <v>-4010.450679899696</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>189200</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -28042,9 +27652,11 @@
         <v>-4010.450679899696</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>189400</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28079,9 +27691,11 @@
         <v>-3909.455879899696</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>189400</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -28116,9 +27730,11 @@
         <v>-3985.256779899696</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>189700</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -28153,9 +27769,11 @@
         <v>-3980.598979899696</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>189300</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -28190,9 +27808,11 @@
         <v>-3975.266544704754</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>189400</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -28227,9 +27847,11 @@
         <v>-3975.266544704754</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>189800</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -28264,9 +27886,11 @@
         <v>-3979.061744704754</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>189800</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28301,9 +27925,11 @@
         <v>-4032.777844704754</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>189400</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28338,9 +27964,11 @@
         <v>-4041.373444704754</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>189200</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28375,9 +28003,11 @@
         <v>-3952.249744704754</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>189100</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28412,9 +28042,11 @@
         <v>-3895.022544704754</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>189300</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28449,9 +28081,11 @@
         <v>-3822.814244704754</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>189500</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28486,9 +28120,11 @@
         <v>-3821.554744704754</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>189600</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28523,9 +28159,11 @@
         <v>-3814.122144704754</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>189700</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28560,9 +28198,11 @@
         <v>-3814.122144704754</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>190100</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -28597,9 +28237,11 @@
         <v>-3640.72737271143</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>190100</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28634,9 +28276,11 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>190400</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28671,9 +28315,11 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>190100</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28708,9 +28354,11 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>190100</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28745,9 +28393,11 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>190100</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28782,9 +28432,11 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>190100</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28819,9 +28471,11 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>190100</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -28856,9 +28510,11 @@
         <v>-3646.39837271143</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>190100</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28893,9 +28549,11 @@
         <v>-3627.059472711429</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>190100</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28930,9 +28588,11 @@
         <v>-3632.050472711429</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>190200</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28967,9 +28627,11 @@
         <v>-3632.050472711429</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>190100</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -29004,9 +28666,11 @@
         <v>-3597.076672711429</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>190100</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -29041,9 +28705,11 @@
         <v>-3593.945827123194</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>190300</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -29078,9 +28744,11 @@
         <v>-3668.844927123194</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>190400</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -29115,9 +28783,11 @@
         <v>-3608.195127123194</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>189700</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -29152,9 +28822,11 @@
         <v>-3608.195127123194</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>189900</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -29189,9 +28861,11 @@
         <v>-3613.651827123194</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>189900</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -29226,9 +28900,11 @@
         <v>-3656.105227123194</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>189700</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -29263,9 +28939,11 @@
         <v>-3684.589486437178</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>189600</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -29300,9 +28978,11 @@
         <v>-3696.194986437178</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>189500</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -29337,9 +29017,11 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>189300</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29374,9 +29056,11 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>189000</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29411,9 +29095,11 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>189000</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29448,9 +29134,11 @@
         <v>-3717.254386437178</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>189000</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29485,9 +29173,11 @@
         <v>-3710.442086437178</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>189000</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29522,9 +29212,11 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>189300</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29559,9 +29251,11 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>189400</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29596,9 +29290,11 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>189400</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29633,9 +29329,11 @@
         <v>-3706.095086437178</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>189400</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29670,9 +29368,11 @@
         <v>-3706.075086437178</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>189400</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29707,9 +29407,11 @@
         <v>-3707.075086437178</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>189700</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29744,9 +29446,11 @@
         <v>-3677.455786437178</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>189400</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29781,9 +29485,11 @@
         <v>-3465.317386437178</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>189900</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29818,9 +29524,11 @@
         <v>-3527.233314171349</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>190700</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -36404,11 +36112,9 @@
         <v>-4173.200389111237</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -36480,11 +36186,9 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>191000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -36519,11 +36223,9 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -36558,11 +36260,9 @@
         <v>-4180.568789111237</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -36597,11 +36297,9 @@
         <v>-4180.106889111237</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -36636,11 +36334,9 @@
         <v>-4248.874589111238</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>191400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -36675,11 +36371,9 @@
         <v>-4230.672689111238</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -36714,11 +36408,9 @@
         <v>-4245.238989111238</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>191600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -36753,11 +36445,9 @@
         <v>-4244.432889111238</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1058" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
@@ -36792,11 +36482,9 @@
         <v>-4268.385389111239</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1059" t="n">
-        <v>191400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -36831,11 +36519,9 @@
         <v>-4263.676189111238</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1060" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -36870,11 +36556,9 @@
         <v>-4263.676189111238</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1061" t="n">
-        <v>191600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
@@ -36909,11 +36593,9 @@
         <v>-4288.873689111238</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1062" t="n">
-        <v>191600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
@@ -36948,11 +36630,9 @@
         <v>-4280.432289111239</v>
       </c>
       <c r="H1063" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1063" t="n">
-        <v>191300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -37655,11 +37335,9 @@
         <v>-4226.328489111239</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1082" t="n">
-        <v>191200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
@@ -42425,16 +42103,18 @@
         <v>-2436.596326375903</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1208" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1208" t="n">
+        <v>1</v>
+      </c>
       <c r="M1208" t="inlineStr"/>
     </row>
     <row r="1209">
@@ -42460,11 +42140,15 @@
         <v>-2436.596326375903</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -42493,11 +42177,15 @@
         <v>-2162.501726375903</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -42526,11 +42214,15 @@
         <v>-1621.293717974863</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -42559,11 +42251,15 @@
         <v>-983.7464202766533</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -42592,11 +42288,15 @@
         <v>-301.9573910270362</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -42625,11 +42325,15 @@
         <v>1081.840067750652</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -42658,11 +42362,15 @@
         <v>1783.452743742514</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -42691,11 +42399,15 @@
         <v>2442.259143742514</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -42724,11 +42436,15 @@
         <v>2693.542979931059</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -42757,11 +42473,15 @@
         <v>1947.663379931059</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -42794,7 +42514,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -42827,7 +42551,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -42860,7 +42588,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -42893,7 +42625,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -42926,7 +42662,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -42959,7 +42699,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -42992,7 +42736,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -43025,7 +42773,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -43058,7 +42810,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -43091,7 +42847,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -43124,7 +42884,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -43157,7 +42921,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -43190,7 +42958,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -43223,7 +42995,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -43256,7 +43032,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -43289,7 +43069,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -43322,7 +43106,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -43355,7 +43143,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -43388,7 +43180,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -43421,7 +43217,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -43454,7 +43254,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -43487,7 +43291,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -43516,11 +43324,15 @@
         <v>1169.463766342506</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -43549,11 +43361,15 @@
         <v>1048.446966342506</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -43582,11 +43398,15 @@
         <v>1228.750785149381</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -43615,11 +43435,15 @@
         <v>1243.354385149381</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -43648,11 +43472,15 @@
         <v>1336.749385149381</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -43681,11 +43509,15 @@
         <v>1188.476385149381</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -43714,11 +43546,15 @@
         <v>928.9672851493815</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -43747,11 +43583,15 @@
         <v>840.5405851493815</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -43780,11 +43620,15 @@
         <v>1087.293685149381</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -43813,11 +43657,15 @@
         <v>1087.293685149381</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -43850,7 +43698,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -43883,7 +43735,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -43916,7 +43772,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -43949,7 +43809,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -43982,7 +43846,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -44015,7 +43883,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -44048,7 +43920,11 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -44081,7 +43957,11 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -44114,7 +43994,11 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -44147,7 +44031,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -44180,7 +44068,11 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -44213,7 +44105,11 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -44246,7 +44142,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -44279,7 +44179,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -44312,7 +44216,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -44345,7 +44253,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -44378,7 +44290,11 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -44407,14 +44323,16 @@
         <v>2332.708916953672</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
-      <c r="L1268" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1268" t="inlineStr"/>
       <c r="M1268" t="inlineStr"/>
     </row>
     <row r="1269">
@@ -44440,7 +44358,7 @@
         <v>2503.653316953672</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -44473,7 +44391,7 @@
         <v>2886.320996099892</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -44506,7 +44424,7 @@
         <v>2390.874251187924</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -44539,7 +44457,7 @@
         <v>2756.371621356408</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -44572,7 +44490,7 @@
         <v>3359.127221356408</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -44605,7 +44523,7 @@
         <v>2870.425349843054</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -44638,7 +44556,7 @@
         <v>2537.973925858912</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -44671,7 +44589,7 @@
         <v>3120.705259871047</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -44704,7 +44622,7 @@
         <v>3414.655789015035</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
